--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -252,7 +252,8 @@
 @ LAD</t>
   </si>
   <si>
-    <t>Data for August 25, 2025 • ESPN updated Aug 25, 2025, 08:32 AM ET</t>
+    <t>Data for August 25, 2025
+ESPN updated Aug 25, 2025, 08:32 AM ET</t>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -377,13 +378,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -399,6 +400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,15 +1267,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -790,7 +790,7 @@
     <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="40" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -252,8 +252,38 @@
 @ LAD</t>
   </si>
   <si>
-    <t>Data for August 25, 2025
-ESPN updated Aug 25, 2025, 08:32 AM ET</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data for August 25, 2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESPN updated Aug 25, 2025, 08:32 AM ET</t>
+    </r>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -320,9 +350,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -386,7 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -401,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +828,7 @@
     <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -261,7 +261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Data for August 25, 2025</t>
+      <t>Batter Matchups for August 25, 2025</t>
     </r>
     <r>
       <rPr>
@@ -282,7 +282,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ESPN updated Aug 25, 2025, 08:32 AM ET</t>
+      <t>data last refreshed Aug 25, 2025, 08:32 AM ET</t>
     </r>
   </si>
   <si>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -261,7 +261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Batter Matchups for August 25, 2025</t>
+      <t>Data for August 25, 2025</t>
     </r>
     <r>
       <rPr>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -261,7 +261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Data for August 25, 2025</t>
+      <t>Batter Matchups for August 25, 2025</t>
     </r>
     <r>
       <rPr>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -261,7 +261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Batter Matchups for August 25, 2025</t>
+      <t>Data for August 25, 2025</t>
     </r>
     <r>
       <rPr>
@@ -276,7 +276,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -282,7 +282,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>data last refreshed Aug 25, 2025, 08:32 AM ET</t>
+      <t>last refreshed Aug 25, 2025, 08:32 AM ET</t>
     </r>
   </si>
   <si>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -252,38 +252,7 @@
 @ LAD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data for August 25, 2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>last refreshed Aug 25, 2025, 08:32 AM ET</t>
-    </r>
+    <t>Data for August 25, 2025</t>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -350,17 +319,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,15 +377,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -438,9 +399,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,7 +786,7 @@
     <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" customHeight="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -1305,15 +1263,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -252,7 +252,38 @@
 @ LAD</t>
   </si>
   <si>
-    <t>Data for August 25, 2025</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data for 08/25/2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESPN updated 08/25/2025 08:32 AM ET</t>
+    </r>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -312,16 +343,24 @@
     <t>Wenceel Pérez (RF)</t>
   </si>
   <si>
-    <t>Best Hitter/Pitcher Matchups for August 25, 2025</t>
+    <t>Best Hitter/Pitcher Matchups for 08/25/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -377,15 +416,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -399,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +828,7 @@
     <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -1263,15 +1305,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -282,7 +282,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ESPN updated 08/25/2025 08:32 AM ET</t>
+      <t>as of 08/25/2025 08:32 AM ET</t>
     </r>
   </si>
   <si>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -261,7 +261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Data for 08/25/2025</t>
+      <t>Batter Matchups 08/25/2025</t>
     </r>
     <r>
       <rPr>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -422,7 +422,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>StartTime</t>
   </si>
@@ -250,6 +250,9 @@
   <si>
     <t>CIN
 @ LAD</t>
+  </si>
+  <si>
+    <t>as of 08/25/2025 08:32 AM ET</t>
   </si>
   <si>
     <r>
@@ -276,7 +279,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -350,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +364,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,16 +426,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,8 +449,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -839,20 +852,12 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
@@ -1229,7 +1234,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -1258,6 +1263,7 @@
     <mergeCell ref="B27:C28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E32">
     <cfRule type="notContainsBlanks" dxfId="5" priority="6">
@@ -1306,7 +1312,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1316,26 +1322,26 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>77</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1352,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1369,10 +1375,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1389,10 +1395,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1409,10 +1415,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1429,10 +1435,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
   <si>
     <t>StartTime</t>
   </si>
@@ -253,40 +253,6 @@
   </si>
   <si>
     <t>as of 08/25/2025 08:32 AM ET</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Batter Matchups 08/25/2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>as of 08/25/2025 08:32 AM ET</t>
-    </r>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -842,9 +808,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1312,7 +1276,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1335,13 +1299,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1358,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1375,10 +1339,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1395,10 +1359,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1415,10 +1379,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1435,10 +1399,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>StartTime</t>
   </si>
@@ -250,6 +250,9 @@
   <si>
     <t>CIN
 @ LAD</t>
+  </si>
+  <si>
+    <t>Batter Matchups 08/25/2025</t>
   </si>
   <si>
     <t>as of 08/25/2025 08:32 AM ET</t>
@@ -398,7 +401,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -807,16 +810,18 @@
     <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" customHeight="1">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:5" ht="26" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1276,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1299,13 +1304,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1322,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1339,10 +1344,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1359,10 +1364,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1379,10 +1384,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1399,10 +1404,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -799,7 +799,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -200,6 +200,9 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>as of 08/25/2025 08:32 AM ET</t>
+  </si>
+  <si>
     <t>BOS
 @ BAL</t>
   </si>
@@ -253,9 +256,6 @@
   </si>
   <si>
     <t>Batter Matchups 08/25/2025</t>
-  </si>
-  <si>
-    <t>as of 08/25/2025 08:32 AM ET</t>
   </si>
   <si>
     <t>LH_Batters</t>
@@ -339,15 +339,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -403,8 +403,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,14 +415,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -812,28 +812,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
@@ -859,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
@@ -885,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="1">
@@ -911,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
@@ -937,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1">
@@ -963,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
@@ -989,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1">
@@ -1015,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
@@ -1041,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1">
@@ -1067,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1">
@@ -1093,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1">
@@ -1119,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="1">
@@ -1145,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1">
@@ -1202,8 +1210,18 @@
         <v>60</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -1232,7 +1250,6 @@
     <mergeCell ref="B27:C28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:E32">
     <cfRule type="notContainsBlanks" dxfId="5" priority="6">
@@ -1275,41 +1292,41 @@
   <cols>
     <col min="1" max="3" width="6.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="24.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1326,7 +1343,7 @@
       <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1343,10 +1360,10 @@
       <c r="D4" s="1">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1363,10 +1380,10 @@
       <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1383,10 +1400,10 @@
       <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1403,10 +1420,10 @@
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>87</v>
       </c>
     </row>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -347,7 +347,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -200,7 +200,7 @@
     <t>OFF</t>
   </si>
   <si>
-    <t>as of 08/25/2025 08:32 AM ET</t>
+    <t>last updated 08/25/2025 08:32 AM ET</t>
   </si>
   <si>
     <t>BOS

--- a/pitcher_matchups_2025-08-25.xlsx
+++ b/pitcher_matchups_2025-08-25.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>StartTime</t>
   </si>
@@ -317,12 +317,15 @@
   <si>
     <t>Best Hitter/Pitcher Matchups for 08/25/2025</t>
   </si>
+  <si>
+    <t>as of 08/25/2025 08:32 AM ET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +351,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -395,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1427,9 +1440,21 @@
         <v>87</v>
       </c>
     </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:G7">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
